--- a/z中文配置_client.xlsx
+++ b/z中文配置_client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22343" windowHeight="9107"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="中文配置_ClientCn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>键</t>
   </si>
@@ -82,7 +82,7 @@
     <t>CN_105</t>
   </si>
   <si>
-    <t>直推规模达到{0}人团队规模达到{1}人自动解锁{2}星特权</t>
+    <t>直推规模达到{0}人团队规模达到{1}人自动解锁特权</t>
   </si>
   <si>
     <t>CN_106</t>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>支付&lt;font color='0x31FF2C'&gt;{0}金币&lt;/font&gt;开始受孕</t>
+  </si>
+  <si>
+    <t>CN_113</t>
+  </si>
+  <si>
+    <t>提现团队人数不足</t>
+  </si>
+  <si>
+    <t>CN_114</t>
+  </si>
+  <si>
+    <t>团队达到{0}人数，需要{1}％拥有{2}级及以上的动物，当前团队拥有达标比例{3}％</t>
   </si>
 </sst>
 </file>
@@ -155,6 +167,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -162,30 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -201,23 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,32 +272,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,16 +295,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,21 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,6 +558,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,36 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -624,11 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1349,6 +1361,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
